--- a/data/xlsx_edit/physrost03.xlsx
+++ b/data/xlsx_edit/physrost03.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1281">
   <si>
     <t xml:space="preserve">Institution</t>
   </si>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">68</t>
   </si>
   <si>
-    <t xml:space="preserve">Cal Poly St U-San Louis Obispo</t>
+    <t xml:space="preserve">Cal Poly St U-San Luis Obispo</t>
   </si>
   <si>
     <t xml:space="preserve">2058</t>
@@ -547,13 +547,13 @@
     <t xml:space="preserve">688</t>
   </si>
   <si>
-    <t xml:space="preserve">Colorado St U, Fort Collins</t>
+    <t xml:space="preserve">Colorado St U-Fort Collins</t>
   </si>
   <si>
     <t xml:space="preserve">1730</t>
   </si>
   <si>
-    <t xml:space="preserve">Colorado St U, Pueblo</t>
+    <t xml:space="preserve">Colorado St U-Pueblo</t>
   </si>
   <si>
     <t xml:space="preserve">135</t>
@@ -1183,13 +1183,13 @@
     <t xml:space="preserve">229</t>
   </si>
   <si>
-    <t xml:space="preserve">Indiana U Purdue U Ft Wayne</t>
+    <t xml:space="preserve">Indiana U Purdue U-Ft Wayne</t>
   </si>
   <si>
     <t xml:space="preserve">325</t>
   </si>
   <si>
-    <t xml:space="preserve">Indiana U Purdue U Indpls</t>
+    <t xml:space="preserve">Indiana U Purdue U-Indpls</t>
   </si>
   <si>
     <t xml:space="preserve">957</t>
@@ -1213,10 +1213,10 @@
     <t xml:space="preserve">841</t>
   </si>
   <si>
-    <t xml:space="preserve">Purdue U Calumet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purdue U West Lafayette</t>
+    <t xml:space="preserve">Purdue U-Calumet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purdue U-West Lafayette</t>
   </si>
   <si>
     <t xml:space="preserve">3771</t>
@@ -1882,7 +1882,7 @@
     <t xml:space="preserve">871</t>
   </si>
   <si>
-    <t xml:space="preserve">Michigan-U of, Ann Arbor (Appl)</t>
+    <t xml:space="preserve">Michigan-U of, Ann Arbor (Appl Phys)</t>
   </si>
   <si>
     <t xml:space="preserve">Michigan-U of, Dearborn</t>
@@ -2138,6 +2138,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chadron State Coll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
   </si>
   <si>
     <t xml:space="preserve">Creighton U</t>
@@ -4154,13 +4157,13 @@
   </sheetPr>
   <dimension ref="A1:O766"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A752" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B775" activeCellId="0" sqref="B775"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A358" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B383" activeCellId="0" sqref="B383:B390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.73"/>
@@ -15658,7 +15661,7 @@
         <v>705</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>26</v>
@@ -15681,10 +15684,10 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>51</v>
@@ -15719,16 +15722,16 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G384" s="1" t="n">
         <v>94</v>
@@ -15745,10 +15748,10 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>26</v>
@@ -15771,16 +15774,16 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G386" s="1" t="n">
         <v>497</v>
@@ -15797,16 +15800,16 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G387" s="1" t="n">
         <v>1456</v>
@@ -15838,16 +15841,16 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G388" s="1" t="n">
         <v>949</v>
@@ -15864,10 +15867,10 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>26</v>
@@ -15890,10 +15893,10 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>26</v>
@@ -15916,16 +15919,16 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G391" s="1" t="n">
         <v>752</v>
@@ -15957,10 +15960,10 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>17</v>
@@ -15968,16 +15971,16 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G393" s="1" t="n">
         <v>497</v>
@@ -16009,16 +16012,16 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G394" s="1" t="n">
         <v>390</v>
@@ -16050,10 +16053,10 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>26</v>
@@ -16064,16 +16067,16 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G396" s="1" t="n">
         <v>69</v>
@@ -16090,10 +16093,10 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>26</v>
@@ -16116,16 +16119,16 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G398" s="1" t="n">
         <v>186</v>
@@ -16142,10 +16145,10 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>26</v>
@@ -16153,16 +16156,16 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G400" s="1" t="n">
         <v>304</v>
@@ -16179,10 +16182,10 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>17</v>
@@ -16214,16 +16217,16 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G402" s="1" t="n">
         <v>110</v>
@@ -16255,10 +16258,10 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>26</v>
@@ -16281,16 +16284,16 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G404" s="1" t="n">
         <v>137</v>
@@ -16307,16 +16310,16 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G405" s="1" t="n">
         <v>102</v>
@@ -16333,16 +16336,16 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G406" s="1" t="n">
         <v>202</v>
@@ -16359,10 +16362,10 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>26</v>
@@ -16370,16 +16373,16 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G408" s="1" t="n">
         <v>652</v>
@@ -16411,10 +16414,10 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>17</v>
@@ -16446,10 +16449,10 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>26</v>
@@ -16472,16 +16475,16 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G411" s="1" t="n">
         <v>394</v>
@@ -16498,10 +16501,10 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>17</v>
@@ -16539,10 +16542,10 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>26</v>
@@ -16565,10 +16568,10 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B414" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>26</v>
@@ -16576,10 +16579,10 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>17</v>
@@ -16617,16 +16620,16 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G416" s="1" t="n">
         <v>0</v>
@@ -16658,16 +16661,16 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G417" s="1" t="n">
         <v>1673</v>
@@ -16699,10 +16702,10 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>51</v>
@@ -16710,10 +16713,10 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B419" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>26</v>
@@ -16736,10 +16739,10 @@
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>26</v>
@@ -16762,10 +16765,10 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>26</v>
@@ -16773,16 +16776,16 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G422" s="1" t="n">
         <v>90</v>
@@ -16799,16 +16802,16 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G423" s="1" t="n">
         <v>0</v>
@@ -16840,10 +16843,10 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>26</v>
@@ -16866,16 +16869,16 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G425" s="1" t="n">
         <v>271</v>
@@ -16907,10 +16910,10 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>17</v>
@@ -16942,16 +16945,16 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G427" s="1" t="n">
         <v>0</v>
@@ -16983,10 +16986,10 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>17</v>
@@ -17018,16 +17021,16 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G429" s="1" t="n">
         <v>97</v>
@@ -17044,10 +17047,10 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>26</v>
@@ -17070,10 +17073,10 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>26</v>
@@ -17096,10 +17099,10 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>17</v>
@@ -17119,16 +17122,16 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G433" s="1" t="n">
         <v>19</v>
@@ -17148,10 +17151,10 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>51</v>
@@ -17159,10 +17162,10 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>51</v>
@@ -17188,16 +17191,16 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G436" s="1" t="n">
         <v>481</v>
@@ -17217,16 +17220,16 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G437" s="1" t="n">
         <v>143</v>
@@ -17243,10 +17246,10 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>26</v>
@@ -17269,10 +17272,10 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>26</v>
@@ -17295,16 +17298,16 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G440" s="1" t="n">
         <v>83</v>
@@ -17321,10 +17324,10 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>26</v>
@@ -17347,16 +17350,16 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G442" s="1" t="n">
         <v>700</v>
@@ -17373,10 +17376,10 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>26</v>
@@ -17399,10 +17402,10 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>26</v>
@@ -17425,10 +17428,10 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>26</v>
@@ -17451,10 +17454,10 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>26</v>
@@ -17477,10 +17480,10 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>26</v>
@@ -17497,10 +17500,10 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>26</v>
@@ -17523,10 +17526,10 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>26</v>
@@ -17549,16 +17552,16 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G450" s="1" t="n">
         <v>181</v>
@@ -17590,10 +17593,10 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>26</v>
@@ -17601,16 +17604,16 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G452" s="1" t="n">
         <v>0</v>
@@ -17627,16 +17630,16 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G453" s="1" t="n">
         <v>41</v>
@@ -17668,10 +17671,10 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>26</v>
@@ -17694,16 +17697,16 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G455" s="1" t="n">
         <v>116</v>
@@ -17720,16 +17723,16 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G456" s="1" t="n">
         <v>0</v>
@@ -17761,10 +17764,10 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>17</v>
@@ -17787,10 +17790,10 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>26</v>
@@ -17813,16 +17816,16 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G459" s="1" t="n">
         <v>50</v>
@@ -17842,13 +17845,13 @@
         <v>655</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G460" s="1" t="n">
         <v>0</v>
@@ -17865,10 +17868,10 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>26</v>
@@ -17891,10 +17894,10 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>26</v>
@@ -17917,10 +17920,10 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>26</v>
@@ -17943,10 +17946,10 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>26</v>
@@ -17969,10 +17972,10 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>26</v>
@@ -17995,10 +17998,10 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>26</v>
@@ -18021,10 +18024,10 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>26</v>
@@ -18047,16 +18050,16 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G468" s="1" t="n">
         <v>241</v>
@@ -18073,16 +18076,16 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G469" s="1" t="n">
         <v>200</v>
@@ -18099,10 +18102,10 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>26</v>
@@ -18125,16 +18128,16 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G471" s="1" t="n">
         <v>0</v>
@@ -18151,10 +18154,10 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>26</v>
@@ -18177,10 +18180,10 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>17</v>
@@ -18188,16 +18191,16 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G474" s="1" t="n">
         <v>600</v>
@@ -18226,16 +18229,16 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G475" s="1" t="n">
         <v>144</v>
@@ -18267,16 +18270,16 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G476" s="1" t="n">
         <v>114</v>
@@ -18293,16 +18296,16 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G477" s="1" t="n">
         <v>0</v>
@@ -18334,16 +18337,16 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G478" s="1" t="n">
         <v>1285</v>
@@ -18375,16 +18378,16 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G479" s="1" t="n">
         <v>116</v>
@@ -18401,16 +18404,16 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G480" s="1" t="n">
         <v>0</v>
@@ -18427,10 +18430,10 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>26</v>
@@ -18453,10 +18456,10 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>26</v>
@@ -18479,16 +18482,16 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G483" s="1" t="n">
         <v>170</v>
@@ -18505,10 +18508,10 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>26</v>
@@ -18531,10 +18534,10 @@
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>26</v>
@@ -18557,16 +18560,16 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G486" s="1" t="n">
         <v>301</v>
@@ -18595,16 +18598,16 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G487" s="1" t="n">
         <v>81</v>
@@ -18621,16 +18624,16 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G488" s="1" t="n">
         <v>97</v>
@@ -18662,16 +18665,16 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G489" s="1" t="n">
         <v>474</v>
@@ -18703,16 +18706,16 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G490" s="1" t="n">
         <v>152</v>
@@ -18729,10 +18732,10 @@
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>26</v>
@@ -18740,10 +18743,10 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>26</v>
@@ -18766,16 +18769,16 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G493" s="1" t="n">
         <v>0</v>
@@ -18792,16 +18795,16 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G494" s="1" t="n">
         <v>120</v>
@@ -18830,10 +18833,10 @@
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>26</v>
@@ -18856,16 +18859,16 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G496" s="1" t="n">
         <v>616</v>
@@ -18897,16 +18900,16 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G497" s="1" t="n">
         <v>196</v>
@@ -18923,16 +18926,16 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G498" s="1" t="n">
         <v>641</v>
@@ -18964,10 +18967,10 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>51</v>
@@ -18996,16 +18999,16 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G500" s="1" t="n">
         <v>276</v>
@@ -19022,16 +19025,16 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G501" s="1" t="n">
         <v>76</v>
@@ -19048,16 +19051,16 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G502" s="1" t="n">
         <v>650</v>
@@ -19074,10 +19077,10 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>17</v>
@@ -19115,16 +19118,16 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G504" s="1" t="n">
         <v>35</v>
@@ -19141,10 +19144,10 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B505" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>17</v>
@@ -19182,16 +19185,16 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G506" s="1" t="n">
         <v>180</v>
@@ -19223,10 +19226,10 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>17</v>
@@ -19249,16 +19252,16 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B508" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G508" s="1" t="n">
         <v>694</v>
@@ -19287,16 +19290,16 @@
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G509" s="1" t="n">
         <v>32</v>
@@ -19313,10 +19316,10 @@
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>26</v>
@@ -19339,16 +19342,16 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G511" s="1" t="n">
         <v>385</v>
@@ -19365,16 +19368,16 @@
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G512" s="1" t="n">
         <v>204</v>
@@ -19391,16 +19394,16 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G513" s="1" t="n">
         <v>1144</v>
@@ -19429,16 +19432,16 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G514" s="1" t="n">
         <v>0</v>
@@ -19470,16 +19473,16 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G515" s="1" t="n">
         <v>303</v>
@@ -19511,16 +19514,16 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G516" s="1" t="n">
         <v>88</v>
@@ -19549,16 +19552,16 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G517" s="1" t="n">
         <v>0</v>
@@ -19575,10 +19578,10 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>26</v>
@@ -19601,10 +19604,10 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>26</v>
@@ -19627,10 +19630,10 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>26</v>
@@ -19653,10 +19656,10 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>51</v>
@@ -19691,16 +19694,16 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G522" s="1" t="n">
         <v>1259</v>
@@ -19732,16 +19735,16 @@
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G523" s="1" t="n">
         <v>89</v>
@@ -19758,10 +19761,10 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>26</v>
@@ -19769,16 +19772,16 @@
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G525" s="1" t="n">
         <v>534</v>
@@ -19807,10 +19810,10 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>26</v>
@@ -19833,10 +19836,10 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>26</v>
@@ -19859,16 +19862,16 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G528" s="1" t="n">
         <v>125</v>
@@ -19885,16 +19888,16 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G529" s="1" t="n">
         <v>35</v>
@@ -19911,16 +19914,16 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G530" s="1" t="n">
         <v>0</v>
@@ -19952,16 +19955,16 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G531" s="1" t="n">
         <v>1829</v>
@@ -19993,10 +19996,10 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>26</v>
@@ -20019,10 +20022,10 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>26</v>
@@ -20045,16 +20048,16 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G534" s="1" t="n">
         <v>60</v>
@@ -20086,10 +20089,10 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>26</v>
@@ -20112,10 +20115,10 @@
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>26</v>
@@ -20138,16 +20141,16 @@
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G537" s="1" t="n">
         <v>521</v>
@@ -20176,13 +20179,13 @@
         <v>507</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G538" s="1" t="n">
         <v>275</v>
@@ -20199,16 +20202,16 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G539" s="1" t="n">
         <v>150</v>
@@ -20225,16 +20228,16 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G540" s="1" t="n">
         <v>446</v>
@@ -20251,16 +20254,16 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G541" s="1" t="n">
         <v>1394</v>
@@ -20289,10 +20292,10 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>26</v>
@@ -20315,16 +20318,16 @@
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G543" s="1" t="n">
         <v>375</v>
@@ -20341,10 +20344,10 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>26</v>
@@ -20367,10 +20370,10 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>26</v>
@@ -20393,16 +20396,16 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G546" s="1" t="n">
         <v>429</v>
@@ -20434,16 +20437,16 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G547" s="1" t="n">
         <v>3052</v>
@@ -20475,10 +20478,10 @@
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>26</v>
@@ -20498,10 +20501,10 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>26</v>
@@ -20518,16 +20521,16 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G550" s="1" t="n">
         <v>482</v>
@@ -20544,10 +20547,10 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>26</v>
@@ -20570,16 +20573,16 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G552" s="1" t="n">
         <v>365</v>
@@ -20596,16 +20599,16 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G553" s="1" t="n">
         <v>136</v>
@@ -20622,10 +20625,10 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>26</v>
@@ -20648,16 +20651,16 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B555" s="1" t="s">
-        <v>966</v>
-      </c>
       <c r="C555" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G555" s="1" t="n">
         <v>110</v>
@@ -20674,10 +20677,10 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>26</v>
@@ -20700,10 +20703,10 @@
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>17</v>
@@ -20735,16 +20738,16 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G558" s="1" t="n">
         <v>3201</v>
@@ -20776,10 +20779,10 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>26</v>
@@ -20802,16 +20805,16 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G560" s="1" t="n">
         <v>52</v>
@@ -20843,16 +20846,16 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G561" s="1" t="n">
         <v>93</v>
@@ -20869,16 +20872,16 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G562" s="1" t="n">
         <v>0</v>
@@ -20895,16 +20898,16 @@
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G563" s="1" t="n">
         <v>140</v>
@@ -20921,10 +20924,10 @@
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>26</v>
@@ -20947,10 +20950,10 @@
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>26</v>
@@ -20973,16 +20976,16 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B566" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B566" s="1" t="s">
-        <v>983</v>
-      </c>
       <c r="C566" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G566" s="1" t="n">
         <v>36</v>
@@ -20999,10 +21002,10 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>26</v>
@@ -21025,10 +21028,10 @@
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>17</v>
@@ -21066,16 +21069,16 @@
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G569" s="1" t="n">
         <v>177</v>
@@ -21092,10 +21095,10 @@
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>26</v>
@@ -21118,16 +21121,16 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G571" s="1" t="n">
         <v>84</v>
@@ -21159,10 +21162,10 @@
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>26</v>
@@ -21185,16 +21188,16 @@
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G573" s="1" t="n">
         <v>635</v>
@@ -21211,16 +21214,16 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G574" s="1" t="n">
         <v>202</v>
@@ -21237,10 +21240,10 @@
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>17</v>
@@ -21248,10 +21251,10 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>26</v>
@@ -21274,16 +21277,16 @@
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G577" s="1" t="n">
         <v>317</v>
@@ -21300,16 +21303,16 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G578" s="1" t="n">
         <v>496</v>
@@ -21326,10 +21329,10 @@
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>26</v>
@@ -21352,16 +21355,16 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G580" s="1" t="n">
         <v>53</v>
@@ -21378,16 +21381,16 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G581" s="1" t="n">
         <v>35</v>
@@ -21404,10 +21407,10 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>26</v>
@@ -21430,16 +21433,16 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G583" s="1" t="n">
         <v>35</v>
@@ -21456,16 +21459,16 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G584" s="1" t="n">
         <v>0</v>
@@ -21482,16 +21485,16 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G585" s="1" t="n">
         <v>0</v>
@@ -21520,10 +21523,10 @@
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>26</v>
@@ -21546,10 +21549,10 @@
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>26</v>
@@ -21572,16 +21575,16 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G588" s="1" t="n">
         <v>13</v>
@@ -21598,16 +21601,16 @@
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G589" s="1" t="n">
         <v>0</v>
@@ -21624,16 +21627,16 @@
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G590" s="1" t="n">
         <v>45</v>
@@ -21668,7 +21671,7 @@
         <v>677</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>26</v>
@@ -21691,10 +21694,10 @@
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>26</v>
@@ -21717,10 +21720,10 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>26</v>
@@ -21743,10 +21746,10 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>26</v>
@@ -21769,16 +21772,16 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G595" s="1" t="n">
         <v>292</v>
@@ -21795,10 +21798,10 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>26</v>
@@ -21821,10 +21824,10 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>26</v>
@@ -21847,16 +21850,16 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G598" s="1" t="n">
         <v>0</v>
@@ -21888,16 +21891,16 @@
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="G599" s="1" t="n">
         <v>139</v>
@@ -21914,16 +21917,16 @@
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="G600" s="1" t="n">
         <v>242</v>
@@ -21955,16 +21958,16 @@
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G601" s="1" t="n">
         <v>91</v>
@@ -21996,16 +21999,16 @@
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="G602" s="1" t="n">
         <v>179</v>
@@ -22022,16 +22025,16 @@
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G603" s="1" t="n">
         <v>115</v>
@@ -22048,10 +22051,10 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>26</v>
@@ -22074,10 +22077,10 @@
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>26</v>
@@ -22100,16 +22103,16 @@
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="G606" s="1" t="n">
         <v>43</v>
@@ -22126,16 +22129,16 @@
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G607" s="1" t="n">
         <v>0</v>
@@ -22152,10 +22155,10 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>26</v>
@@ -22178,16 +22181,16 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G609" s="1" t="n">
         <v>67</v>
@@ -22216,10 +22219,10 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>26</v>
@@ -22242,10 +22245,10 @@
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>26</v>
@@ -22268,16 +22271,16 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G612" s="1" t="n">
         <v>0</v>
@@ -22294,10 +22297,10 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>26</v>
@@ -22320,10 +22323,10 @@
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>26</v>
@@ -22349,13 +22352,13 @@
         <v>698</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G615" s="1" t="n">
         <v>84</v>
@@ -22372,10 +22375,10 @@
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>26</v>
@@ -22398,16 +22401,16 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G617" s="1" t="n">
         <v>106</v>
@@ -22424,10 +22427,10 @@
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>51</v>
@@ -22435,16 +22438,16 @@
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G619" s="1" t="n">
         <v>57</v>
@@ -22473,16 +22476,16 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G620" s="1" t="n">
         <v>124</v>
@@ -22514,16 +22517,16 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="G621" s="1" t="n">
         <v>78</v>
@@ -22540,16 +22543,16 @@
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G622" s="1" t="n">
         <v>408</v>
@@ -22566,16 +22569,16 @@
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="G623" s="1" t="n">
         <v>149</v>
@@ -22607,16 +22610,16 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G624" s="1" t="n">
         <v>0</v>
@@ -22633,10 +22636,10 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>26</v>
@@ -22659,10 +22662,10 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>26</v>
@@ -22685,16 +22688,16 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="G627" s="1" t="n">
         <v>20</v>
@@ -22711,16 +22714,16 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="G628" s="1" t="n">
         <v>649</v>
@@ -22752,10 +22755,10 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>26</v>
@@ -22778,10 +22781,10 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>26</v>
@@ -22801,16 +22804,16 @@
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G631" s="1" t="n">
         <v>38</v>
@@ -22827,10 +22830,10 @@
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>26</v>
@@ -22838,10 +22841,10 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>26</v>
@@ -22861,16 +22864,16 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="G634" s="1" t="n">
         <v>2551</v>
@@ -22902,10 +22905,10 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>26</v>
@@ -22916,7 +22919,7 @@
         <v>313</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>26</v>
@@ -22939,16 +22942,16 @@
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B637" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="B637" s="1" t="s">
-        <v>1087</v>
-      </c>
       <c r="C637" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="G637" s="1" t="n">
         <v>0</v>
@@ -22965,16 +22968,16 @@
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="G638" s="1" t="n">
         <v>72</v>
@@ -23003,10 +23006,10 @@
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>26</v>
@@ -23029,10 +23032,10 @@
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>26</v>
@@ -23055,10 +23058,10 @@
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B641" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>26</v>
@@ -23081,10 +23084,10 @@
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>26</v>
@@ -23107,16 +23110,16 @@
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G643" s="1" t="n">
         <v>48</v>
@@ -23133,10 +23136,10 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>26</v>
@@ -23159,16 +23162,16 @@
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G645" s="1" t="n">
         <v>0</v>
@@ -23197,10 +23200,10 @@
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>26</v>
@@ -23223,16 +23226,16 @@
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G647" s="1" t="n">
         <v>115</v>
@@ -23249,10 +23252,10 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>51</v>
@@ -23287,16 +23290,16 @@
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="G649" s="1" t="n">
         <v>679</v>
@@ -23313,10 +23316,10 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>26</v>
@@ -23339,10 +23342,10 @@
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>26</v>
@@ -23365,10 +23368,10 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>26</v>
@@ -23391,16 +23394,16 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="G653" s="1" t="n">
         <v>3</v>
@@ -23417,16 +23420,16 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="G654" s="1" t="n">
         <v>40</v>
@@ -23443,16 +23446,16 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="G655" s="1" t="n">
         <v>327</v>
@@ -23469,16 +23472,16 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="G656" s="1" t="n">
         <v>750</v>
@@ -23510,10 +23513,10 @@
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>17</v>
@@ -23536,10 +23539,10 @@
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>26</v>
@@ -23547,10 +23550,10 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>26</v>
@@ -23573,16 +23576,16 @@
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G660" s="1" t="n">
         <v>0</v>
@@ -23614,10 +23617,10 @@
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>26</v>
@@ -23640,16 +23643,16 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B662" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="B662" s="1" t="s">
-        <v>1124</v>
-      </c>
       <c r="C662" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F662" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G662" s="1" t="n">
         <v>1383</v>
@@ -23666,10 +23669,10 @@
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>26</v>
@@ -23677,16 +23680,16 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F664" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G664" s="1" t="n">
         <v>272</v>
@@ -23718,10 +23721,10 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>26</v>
@@ -23744,10 +23747,10 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>26</v>
@@ -23770,16 +23773,16 @@
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F667" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G667" s="1" t="n">
         <v>803</v>
@@ -23802,16 +23805,16 @@
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="G668" s="1" t="n">
         <v>150</v>
@@ -23828,10 +23831,10 @@
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>26</v>
@@ -23854,10 +23857,10 @@
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>26</v>
@@ -23880,10 +23883,10 @@
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>26</v>
@@ -23891,16 +23894,16 @@
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F672" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G672" s="1" t="n">
         <v>938</v>
@@ -23932,16 +23935,16 @@
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F673" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G673" s="1" t="n">
         <v>1091</v>
@@ -23958,16 +23961,16 @@
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G674" s="1" t="n">
         <v>0</v>
@@ -23999,16 +24002,16 @@
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G675" s="1" t="n">
         <v>126</v>
@@ -24025,16 +24028,16 @@
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F676" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="G676" s="1" t="n">
         <v>604</v>
@@ -24051,10 +24054,10 @@
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>17</v>
@@ -24071,16 +24074,16 @@
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F678" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G678" s="1" t="n">
         <v>12</v>
@@ -24097,16 +24100,16 @@
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G679" s="1" t="n">
         <v>70</v>
@@ -24123,10 +24126,10 @@
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>51</v>
@@ -24161,10 +24164,10 @@
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>26</v>
@@ -24187,16 +24190,16 @@
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="G682" s="1" t="n">
         <v>280</v>
@@ -24228,10 +24231,10 @@
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>51</v>
@@ -24266,16 +24269,16 @@
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G684" s="1" t="n">
         <v>87</v>
@@ -24292,16 +24295,16 @@
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G685" s="1" t="n">
         <v>294</v>
@@ -24333,16 +24336,16 @@
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G686" s="1" t="n">
         <v>0</v>
@@ -24359,16 +24362,16 @@
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G687" s="1" t="n">
         <v>287</v>
@@ -24397,16 +24400,16 @@
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F688" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="G688" s="1" t="n">
         <v>483</v>
@@ -24438,16 +24441,16 @@
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="G689" s="1" t="n">
         <v>594</v>
@@ -24479,16 +24482,16 @@
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G690" s="1" t="n">
         <v>1199</v>
@@ -24520,16 +24523,16 @@
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C691" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G691" s="1" t="n">
         <v>17</v>
@@ -24561,16 +24564,16 @@
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F692" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="G692" s="1" t="n">
         <v>1310</v>
@@ -24599,16 +24602,16 @@
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F693" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="G693" s="1" t="n">
         <v>480</v>
@@ -24625,10 +24628,10 @@
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>26</v>
@@ -24651,10 +24654,10 @@
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>26</v>
@@ -24671,10 +24674,10 @@
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>26</v>
@@ -24697,16 +24700,16 @@
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="G697" s="1" t="n">
         <v>4561</v>
@@ -24738,16 +24741,16 @@
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G698" s="1" t="n">
         <v>201</v>
@@ -24779,10 +24782,10 @@
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>17</v>
@@ -24814,16 +24817,16 @@
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F700" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="G700" s="1" t="n">
         <v>844</v>
@@ -24843,13 +24846,13 @@
         <v>698</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F701" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G701" s="1" t="n">
         <v>118</v>
@@ -24866,16 +24869,16 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F702" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="G702" s="1" t="n">
         <v>0</v>
@@ -24892,16 +24895,16 @@
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F703" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G703" s="1" t="n">
         <v>64</v>
@@ -24918,10 +24921,10 @@
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>26</v>
@@ -24944,10 +24947,10 @@
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>26</v>
@@ -24964,10 +24967,10 @@
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>51</v>
@@ -25002,16 +25005,16 @@
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F707" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G707" s="1" t="n">
         <v>74</v>
@@ -25028,10 +25031,10 @@
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B708" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>1190</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>51</v>
@@ -25060,10 +25063,10 @@
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>26</v>
@@ -25086,16 +25089,16 @@
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="G710" s="1" t="n">
         <v>0</v>
@@ -25124,10 +25127,10 @@
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>26</v>
@@ -25150,16 +25153,16 @@
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F712" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G712" s="1" t="n">
         <v>240</v>
@@ -25191,10 +25194,10 @@
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>26</v>
@@ -25217,16 +25220,16 @@
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F714" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G714" s="1" t="n">
         <v>945</v>
@@ -25243,10 +25246,10 @@
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>26</v>
@@ -25269,16 +25272,16 @@
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F716" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G716" s="1" t="n">
         <v>0</v>
@@ -25295,10 +25298,10 @@
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>26</v>
@@ -25321,10 +25324,10 @@
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>26</v>
@@ -25347,10 +25350,10 @@
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>26</v>
@@ -25373,16 +25376,16 @@
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F720" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="G720" s="1" t="n">
         <v>484</v>
@@ -25414,10 +25417,10 @@
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>26</v>
@@ -25440,10 +25443,10 @@
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>26</v>
@@ -25466,10 +25469,10 @@
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>26</v>
@@ -25492,16 +25495,16 @@
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F724" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G724" s="1" t="n">
         <v>0</v>
@@ -25518,16 +25521,16 @@
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F725" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G725" s="1" t="n">
         <v>10</v>
@@ -25544,16 +25547,16 @@
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F726" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G726" s="1" t="n">
         <v>547</v>
@@ -25582,16 +25585,16 @@
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F727" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="G727" s="1" t="n">
         <v>25</v>
@@ -25608,10 +25611,10 @@
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>51</v>
@@ -25646,16 +25649,16 @@
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F729" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G729" s="1" t="n">
         <v>0</v>
@@ -25687,16 +25690,16 @@
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="G730" s="1" t="n">
         <v>0</v>
@@ -25728,10 +25731,10 @@
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>26</v>
@@ -25754,16 +25757,16 @@
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="G732" s="1" t="n">
         <v>276</v>
@@ -25795,16 +25798,16 @@
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="G733" s="1" t="n">
         <v>106</v>
@@ -25821,10 +25824,10 @@
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>26</v>
@@ -25847,16 +25850,16 @@
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F735" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="G735" s="1" t="n">
         <v>40</v>
@@ -25873,10 +25876,10 @@
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>26</v>
@@ -25899,10 +25902,10 @@
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>26</v>
@@ -25925,16 +25928,16 @@
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F738" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G738" s="1" t="n">
         <v>201</v>
@@ -25951,16 +25954,16 @@
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F739" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G739" s="1" t="n">
         <v>93</v>
@@ -25977,10 +25980,10 @@
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>26</v>
@@ -26003,16 +26006,16 @@
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F741" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G741" s="1" t="n">
         <v>129</v>
@@ -26044,16 +26047,16 @@
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F742" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="G742" s="1" t="n">
         <v>179</v>
@@ -26085,16 +26088,16 @@
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F743" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G743" s="1" t="n">
         <v>580</v>
@@ -26111,10 +26114,10 @@
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>26</v>
@@ -26137,16 +26140,16 @@
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F745" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="G745" s="1" t="n">
         <v>70</v>
@@ -26163,10 +26166,10 @@
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>26</v>
@@ -26174,16 +26177,16 @@
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B747" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B747" s="1" t="s">
-        <v>1247</v>
-      </c>
       <c r="C747" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F747" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="G747" s="1" t="n">
         <v>150</v>
@@ -26200,16 +26203,16 @@
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G748" s="1" t="n">
         <v>500</v>
@@ -26241,10 +26244,10 @@
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>26</v>
@@ -26267,10 +26270,10 @@
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>26</v>
@@ -26293,10 +26296,10 @@
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>26</v>
@@ -26319,10 +26322,10 @@
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B752" s="1" t="s">
         <v>1256</v>
-      </c>
-      <c r="B752" s="1" t="s">
-        <v>1255</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>26</v>
@@ -26345,16 +26348,16 @@
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F753" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G753" s="1" t="n">
         <v>39</v>
@@ -26371,16 +26374,16 @@
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F754" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="G754" s="1" t="n">
         <v>324</v>
@@ -26397,10 +26400,10 @@
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>26</v>
@@ -26417,10 +26420,10 @@
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>26</v>
@@ -26443,16 +26446,16 @@
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F757" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="G757" s="1" t="n">
         <v>2236</v>
@@ -26469,16 +26472,16 @@
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F758" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G758" s="1" t="n">
         <v>311</v>
@@ -26495,16 +26498,16 @@
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F759" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G759" s="1" t="n">
         <v>0</v>
@@ -26536,16 +26539,16 @@
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F760" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="G760" s="1" t="n">
         <v>550</v>
@@ -26577,16 +26580,16 @@
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F761" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="G761" s="1" t="n">
         <v>329</v>
@@ -26615,16 +26618,16 @@
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F762" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G762" s="1" t="n">
         <v>200</v>
@@ -26641,16 +26644,16 @@
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F763" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G763" s="1" t="n">
         <v>554</v>
@@ -26667,16 +26670,16 @@
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F764" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="G764" s="1" t="n">
         <v>746</v>
@@ -26693,16 +26696,16 @@
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F765" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="G765" s="1" t="n">
         <v>308</v>
@@ -26719,16 +26722,16 @@
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F766" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G766" s="1" t="n">
         <v>61</v>
